--- a/vertx-pin/zero-erp/src/main/resources/plugin/erp/oob/data/erp.service.catalog.xlsx
+++ b/vertx-pin/zero-erp/src/main/resources/plugin/erp/oob/data/erp.service.catalog.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lang/Develop/Source/ox-workshop/vertx-zero/vertx-pin/zero-erp/src/main/resources/plugin/erp/oob/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC805F4E-29CF-894E-8900-70A83B18A0FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82D86722-03AB-C84B-9AF6-E55F26AC9211}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="39160" yWindow="5240" windowWidth="39740" windowHeight="15680" xr2:uid="{BC32819D-176D-6D4B-8CEE-9D375DE1CDB6}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="56">
   <si>
     <t>code</t>
   </si>
@@ -101,12 +101,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>{
-    "selectable": false
-}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>zero.service.catalog</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -218,6 +212,22 @@
   </si>
   <si>
     <t>process.vendor.hour</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>JSON:workflow/ui.catalog/process.oa.json</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>JSON:workflow/ui.catalog/process.vendor.json</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>JSON:workflow/ui.catalog/process.oa-item.json</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>JSON:workflow/ui.catalog/process.vendor-item.json</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -357,7 +367,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -407,9 +417,6 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -795,19 +802,20 @@
   <dimension ref="A2:I14"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="G7" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="21"/>
   <cols>
-    <col min="1" max="2" width="55.33203125" style="8" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="29.33203125" style="9" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="31" style="9" customWidth="1"/>
-    <col min="5" max="5" width="35.6640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="54.6640625" style="8" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="53.5" style="8" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="25.5" style="9" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.6640625" style="9" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="35.33203125" style="3" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="10" style="3" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="25.5" style="3" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.6640625" style="3" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="7.33203125" style="8" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="26" style="3" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="67" style="3" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:9">
@@ -817,15 +825,15 @@
       <c r="B2" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="19" t="s">
+      <c r="C2" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="D2" s="20"/>
-      <c r="E2" s="20"/>
-      <c r="F2" s="20"/>
-      <c r="G2" s="20"/>
-      <c r="H2" s="20"/>
-      <c r="I2" s="20"/>
+      <c r="D2" s="19"/>
+      <c r="E2" s="19"/>
+      <c r="F2" s="19"/>
+      <c r="G2" s="19"/>
+      <c r="H2" s="19"/>
+      <c r="I2" s="19"/>
     </row>
     <row r="3" spans="1:9">
       <c r="A3" s="4" t="s">
@@ -885,19 +893,19 @@
         <v>20</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="66">
+    <row r="5" spans="1:9" ht="22">
       <c r="A5" s="11" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B5" s="11"/>
       <c r="C5" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="D5" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="D5" s="10" t="s">
-        <v>23</v>
-      </c>
       <c r="E5" s="12" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F5" s="13" t="b">
         <v>0</v>
@@ -907,25 +915,25 @@
         <v>1100</v>
       </c>
       <c r="I5" s="16" t="s">
-        <v>21</v>
+        <v>52</v>
       </c>
     </row>
-    <row r="6" spans="1:9">
+    <row r="6" spans="1:9" ht="22">
       <c r="A6" s="11" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B6" s="11" t="str">
         <f>A$5</f>
         <v>627eede5-ad31-47c4-afc5-84088f172ed5</v>
       </c>
       <c r="C6" s="10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D6" s="10" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E6" s="12" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F6" s="13" t="b">
         <v>1</v>
@@ -934,24 +942,26 @@
       <c r="H6" s="17">
         <v>1005</v>
       </c>
-      <c r="I6" s="18"/>
+      <c r="I6" s="16" t="s">
+        <v>54</v>
+      </c>
     </row>
-    <row r="7" spans="1:9">
+    <row r="7" spans="1:9" ht="22">
       <c r="A7" s="11" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B7" s="11" t="str">
         <f t="shared" ref="B7:B9" si="0">A$5</f>
         <v>627eede5-ad31-47c4-afc5-84088f172ed5</v>
       </c>
       <c r="C7" s="10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D7" s="10" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E7" s="12" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F7" s="13" t="b">
         <v>1</v>
@@ -960,24 +970,26 @@
       <c r="H7" s="17">
         <v>1010</v>
       </c>
-      <c r="I7" s="18"/>
+      <c r="I7" s="16" t="s">
+        <v>54</v>
+      </c>
     </row>
-    <row r="8" spans="1:9">
+    <row r="8" spans="1:9" ht="22">
       <c r="A8" s="11" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B8" s="11" t="str">
         <f t="shared" si="0"/>
         <v>627eede5-ad31-47c4-afc5-84088f172ed5</v>
       </c>
       <c r="C8" s="10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D8" s="10" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E8" s="12" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F8" s="13" t="b">
         <v>1</v>
@@ -986,24 +998,26 @@
       <c r="H8" s="17">
         <v>1015</v>
       </c>
-      <c r="I8" s="18"/>
+      <c r="I8" s="16" t="s">
+        <v>54</v>
+      </c>
     </row>
-    <row r="9" spans="1:9">
+    <row r="9" spans="1:9" ht="22">
       <c r="A9" s="11" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B9" s="11" t="str">
         <f t="shared" si="0"/>
         <v>627eede5-ad31-47c4-afc5-84088f172ed5</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D9" s="10" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E9" s="12" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F9" s="13" t="b">
         <v>1</v>
@@ -1012,21 +1026,23 @@
       <c r="H9" s="17">
         <v>1020</v>
       </c>
-      <c r="I9" s="18"/>
+      <c r="I9" s="16" t="s">
+        <v>54</v>
+      </c>
     </row>
-    <row r="10" spans="1:9" ht="66">
+    <row r="10" spans="1:9" ht="22">
       <c r="A10" s="11" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B10" s="11"/>
       <c r="C10" s="10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D10" s="10" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E10" s="12" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F10" s="13" t="b">
         <v>0</v>
@@ -1036,25 +1052,25 @@
         <v>1150</v>
       </c>
       <c r="I10" s="16" t="s">
-        <v>21</v>
+        <v>53</v>
       </c>
     </row>
-    <row r="11" spans="1:9">
+    <row r="11" spans="1:9" ht="22">
       <c r="A11" s="11" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B11" s="11" t="str">
         <f>A$10</f>
         <v>69354361-a9d2-4cf0-b693-c75fbf1370fe</v>
       </c>
       <c r="C11" s="10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D11" s="10" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E11" s="12" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F11" s="13" t="b">
         <v>1</v>
@@ -1063,24 +1079,26 @@
       <c r="H11" s="17">
         <v>1005</v>
       </c>
-      <c r="I11" s="18"/>
+      <c r="I11" s="16" t="s">
+        <v>55</v>
+      </c>
     </row>
-    <row r="12" spans="1:9">
+    <row r="12" spans="1:9" ht="22">
       <c r="A12" s="11" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B12" s="11" t="str">
         <f t="shared" ref="B12:B14" si="1">A$10</f>
         <v>69354361-a9d2-4cf0-b693-c75fbf1370fe</v>
       </c>
       <c r="C12" s="10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D12" s="10" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E12" s="12" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F12" s="13" t="b">
         <v>1</v>
@@ -1089,24 +1107,26 @@
       <c r="H12" s="17">
         <v>1010</v>
       </c>
-      <c r="I12" s="18"/>
+      <c r="I12" s="16" t="s">
+        <v>55</v>
+      </c>
     </row>
-    <row r="13" spans="1:9">
+    <row r="13" spans="1:9" ht="22">
       <c r="A13" s="11" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B13" s="11" t="str">
         <f t="shared" si="1"/>
         <v>69354361-a9d2-4cf0-b693-c75fbf1370fe</v>
       </c>
       <c r="C13" s="10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D13" s="10" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E13" s="12" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F13" s="13" t="b">
         <v>1</v>
@@ -1115,24 +1135,26 @@
       <c r="H13" s="17">
         <v>1015</v>
       </c>
-      <c r="I13" s="18"/>
+      <c r="I13" s="16" t="s">
+        <v>55</v>
+      </c>
     </row>
-    <row r="14" spans="1:9">
+    <row r="14" spans="1:9" ht="22">
       <c r="A14" s="11" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B14" s="11" t="str">
         <f t="shared" si="1"/>
         <v>69354361-a9d2-4cf0-b693-c75fbf1370fe</v>
       </c>
       <c r="C14" s="10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D14" s="10" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E14" s="12" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F14" s="13" t="b">
         <v>1</v>
@@ -1141,7 +1163,9 @@
       <c r="H14" s="17">
         <v>1020</v>
       </c>
-      <c r="I14" s="18"/>
+      <c r="I14" s="16" t="s">
+        <v>55</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/vertx-pin/zero-erp/src/main/resources/plugin/erp/oob/data/erp.service.catalog.xlsx
+++ b/vertx-pin/zero-erp/src/main/resources/plugin/erp/oob/data/erp.service.catalog.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lang/Develop/Source/ox-workshop/vertx-zero/vertx-pin/zero-erp/src/main/resources/plugin/erp/oob/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82D86722-03AB-C84B-9AF6-E55F26AC9211}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9A6769A-3F44-D546-BFFE-014CE8C91132}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="39160" yWindow="5240" windowWidth="39740" windowHeight="15680" xr2:uid="{BC32819D-176D-6D4B-8CEE-9D375DE1CDB6}"/>
   </bookViews>
@@ -215,20 +215,17 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>JSON:workflow/ui.catalog/process.oa.json</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>JSON:workflow/ui.catalog/process.vendor.json</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>JSON:workflow/ui.catalog/process.oa-item.json</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>JSON:workflow/ui.catalog/process.vendor-item.json</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <t>JSON:cab/catalog/process.oa.json</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>JSON:cab/catalog/process.oa-item.json</t>
+  </si>
+  <si>
+    <t>JSON:cab/catalog/process.vendor.json</t>
+  </si>
+  <si>
+    <t>JSON:cab/catalog/process.vendor-item.json</t>
   </si>
 </sst>
 </file>
@@ -802,7 +799,7 @@
   <dimension ref="A2:I14"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="G7" sqref="A1:XFD1048576"/>
+      <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="21"/>
@@ -815,7 +812,7 @@
     <col min="6" max="6" width="10" style="3" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="12.6640625" style="3" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="7.33203125" style="8" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="67" style="3" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="56.83203125" style="3" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:9">
@@ -943,7 +940,7 @@
         <v>1005</v>
       </c>
       <c r="I6" s="16" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="22">
@@ -971,7 +968,7 @@
         <v>1010</v>
       </c>
       <c r="I7" s="16" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="22">
@@ -999,7 +996,7 @@
         <v>1015</v>
       </c>
       <c r="I8" s="16" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="22">
@@ -1027,7 +1024,7 @@
         <v>1020</v>
       </c>
       <c r="I9" s="16" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="22">
@@ -1052,7 +1049,7 @@
         <v>1150</v>
       </c>
       <c r="I10" s="16" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="22">

--- a/vertx-pin/zero-erp/src/main/resources/plugin/erp/oob/data/erp.service.catalog.xlsx
+++ b/vertx-pin/zero-erp/src/main/resources/plugin/erp/oob/data/erp.service.catalog.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lang/Develop/Source/ox-workshop/vertx-zero/vertx-pin/zero-erp/src/main/resources/plugin/erp/oob/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9A6769A-3F44-D546-BFFE-014CE8C91132}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{420F01BB-539A-4E45-95DB-3051EC758648}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="39160" yWindow="5240" windowWidth="39740" windowHeight="15680" xr2:uid="{BC32819D-176D-6D4B-8CEE-9D375DE1CDB6}"/>
+    <workbookView xWindow="62640" yWindow="2660" windowWidth="39740" windowHeight="15680" xr2:uid="{BC32819D-176D-6D4B-8CEE-9D375DE1CDB6}"/>
   </bookViews>
   <sheets>
     <sheet name="DATA-CDATA" sheetId="7" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="64">
   <si>
     <t>code</t>
   </si>
@@ -226,6 +226,38 @@
   </si>
   <si>
     <t>JSON:cab/catalog/process.vendor-item.json</t>
+  </si>
+  <si>
+    <t>w.oa.trip</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>w.oa.vacation</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>w.oa.assigment</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>w.oa.training</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>w.vendor.check-in</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>w.vendor.check-out</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>w.vendor.assessment</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>w.vendor.hour</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -799,7 +831,7 @@
   <dimension ref="A2:I14"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="I6" sqref="I6"/>
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="21"/>
@@ -810,7 +842,7 @@
     <col min="4" max="4" width="18.6640625" style="9" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="35.33203125" style="3" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="10" style="3" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.6640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="27.6640625" style="3" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="7.33203125" style="8" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="56.83203125" style="3" bestFit="1" customWidth="1"/>
   </cols>
@@ -935,7 +967,9 @@
       <c r="F6" s="13" t="b">
         <v>1</v>
       </c>
-      <c r="G6" s="14"/>
+      <c r="G6" s="14" t="s">
+        <v>56</v>
+      </c>
       <c r="H6" s="17">
         <v>1005</v>
       </c>
@@ -963,7 +997,9 @@
       <c r="F7" s="13" t="b">
         <v>1</v>
       </c>
-      <c r="G7" s="14"/>
+      <c r="G7" s="14" t="s">
+        <v>57</v>
+      </c>
       <c r="H7" s="17">
         <v>1010</v>
       </c>
@@ -991,7 +1027,9 @@
       <c r="F8" s="13" t="b">
         <v>1</v>
       </c>
-      <c r="G8" s="14"/>
+      <c r="G8" s="14" t="s">
+        <v>58</v>
+      </c>
       <c r="H8" s="17">
         <v>1015</v>
       </c>
@@ -1019,7 +1057,9 @@
       <c r="F9" s="13" t="b">
         <v>1</v>
       </c>
-      <c r="G9" s="14"/>
+      <c r="G9" s="14" t="s">
+        <v>59</v>
+      </c>
       <c r="H9" s="17">
         <v>1020</v>
       </c>
@@ -1072,7 +1112,9 @@
       <c r="F11" s="13" t="b">
         <v>1</v>
       </c>
-      <c r="G11" s="14"/>
+      <c r="G11" s="14" t="s">
+        <v>60</v>
+      </c>
       <c r="H11" s="17">
         <v>1005</v>
       </c>
@@ -1100,7 +1142,9 @@
       <c r="F12" s="13" t="b">
         <v>1</v>
       </c>
-      <c r="G12" s="14"/>
+      <c r="G12" s="14" t="s">
+        <v>61</v>
+      </c>
       <c r="H12" s="17">
         <v>1010</v>
       </c>
@@ -1128,7 +1172,9 @@
       <c r="F13" s="13" t="b">
         <v>1</v>
       </c>
-      <c r="G13" s="14"/>
+      <c r="G13" s="14" t="s">
+        <v>62</v>
+      </c>
       <c r="H13" s="17">
         <v>1015</v>
       </c>
@@ -1156,7 +1202,9 @@
       <c r="F14" s="13" t="b">
         <v>1</v>
       </c>
-      <c r="G14" s="14"/>
+      <c r="G14" s="14" t="s">
+        <v>63</v>
+      </c>
       <c r="H14" s="17">
         <v>1020</v>
       </c>

--- a/vertx-pin/zero-erp/src/main/resources/plugin/erp/oob/data/erp.service.catalog.xlsx
+++ b/vertx-pin/zero-erp/src/main/resources/plugin/erp/oob/data/erp.service.catalog.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lang/Develop/Source/ox-workshop/vertx-zero/vertx-pin/zero-erp/src/main/resources/plugin/erp/oob/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{420F01BB-539A-4E45-95DB-3051EC758648}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D41C5959-E10D-184A-BB07-F862D7494EC1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="62640" yWindow="2660" windowWidth="39740" windowHeight="15680" xr2:uid="{BC32819D-176D-6D4B-8CEE-9D375DE1CDB6}"/>
   </bookViews>
@@ -244,19 +244,19 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>w.vendor.check-in</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>w.vendor.check-out</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>w.vendor.assessment</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>w.vendor.hour</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>w.vendor.check.in</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>w.vendor.check.out</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -831,7 +831,7 @@
   <dimension ref="A2:I14"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="21"/>
@@ -1113,7 +1113,7 @@
         <v>1</v>
       </c>
       <c r="G11" s="14" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="H11" s="17">
         <v>1005</v>
@@ -1143,7 +1143,7 @@
         <v>1</v>
       </c>
       <c r="G12" s="14" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="H12" s="17">
         <v>1010</v>
@@ -1173,7 +1173,7 @@
         <v>1</v>
       </c>
       <c r="G13" s="14" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="H13" s="17">
         <v>1015</v>
@@ -1203,7 +1203,7 @@
         <v>1</v>
       </c>
       <c r="G14" s="14" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="H14" s="17">
         <v>1020</v>

--- a/vertx-pin/zero-erp/src/main/resources/plugin/erp/oob/data/erp.service.catalog.xlsx
+++ b/vertx-pin/zero-erp/src/main/resources/plugin/erp/oob/data/erp.service.catalog.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lang/Develop/Source/ox-workshop/vertx-zero/vertx-pin/zero-erp/src/main/resources/plugin/erp/oob/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D41C5959-E10D-184A-BB07-F862D7494EC1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A3D8C90-C865-9B43-8A10-FCF78DCAB719}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="62640" yWindow="2660" windowWidth="39740" windowHeight="15680" xr2:uid="{BC32819D-176D-6D4B-8CEE-9D375DE1CDB6}"/>
   </bookViews>
   <sheets>
     <sheet name="DATA-CDATA" sheetId="7" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191029" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -236,10 +236,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>w.oa.assigment</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>w.oa.training</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -257,6 +253,10 @@
   </si>
   <si>
     <t>w.vendor.check.out</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>w.oa.assignment</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -831,7 +831,7 @@
   <dimension ref="A2:I14"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="21"/>
@@ -1028,7 +1028,7 @@
         <v>1</v>
       </c>
       <c r="G8" s="14" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="H8" s="17">
         <v>1015</v>
@@ -1058,7 +1058,7 @@
         <v>1</v>
       </c>
       <c r="G9" s="14" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="H9" s="17">
         <v>1020</v>
@@ -1113,7 +1113,7 @@
         <v>1</v>
       </c>
       <c r="G11" s="14" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="H11" s="17">
         <v>1005</v>
@@ -1143,7 +1143,7 @@
         <v>1</v>
       </c>
       <c r="G12" s="14" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="H12" s="17">
         <v>1010</v>
@@ -1173,7 +1173,7 @@
         <v>1</v>
       </c>
       <c r="G13" s="14" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H13" s="17">
         <v>1015</v>
@@ -1203,7 +1203,7 @@
         <v>1</v>
       </c>
       <c r="G14" s="14" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="H14" s="17">
         <v>1020</v>
